--- a/legislator/property/output/normal/楊麗環_2013-12-31_財產申報表_tmp4fed1.xlsx
+++ b/legislator/property/output/normal/楊麗環_2013-12-31_財產申報表_tmp4fed1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="102">
   <si>
     <t>土地坐落</t>
   </si>
@@ -225,6 +225,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>茂德科技股份有限公司</t>
   </si>
   <si>
@@ -235,6 +244,9 @@
   </si>
   <si>
     <t>26，773</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
   </si>
   <si>
     <t>債務人</t>
@@ -1225,13 +1237,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>62</v>
       </c>
@@ -1250,19 +1262,28 @@
       <c r="G1" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
@@ -1273,13 +1294,22 @@
       <c r="G2" s="2">
         <v>267730</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -1296,13 +1326,22 @@
       <c r="G3" s="2">
         <v>3450</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -1318,6 +1357,15 @@
       </c>
       <c r="G4" s="2">
         <v>6320</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="2">
+        <v>960</v>
       </c>
     </row>
   </sheetData>
@@ -1338,19 +1386,19 @@
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1358,22 +1406,22 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1391,22 +1439,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1417,19 +1465,19 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2">
         <v>950000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1440,19 +1488,19 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1463,19 +1511,19 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊麗環_2013-12-31_財產申報表_tmp4fed1.xlsx
+++ b/legislator/property/output/normal/楊麗環_2013-12-31_財產申報表_tmp4fed1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="104">
   <si>
     <t>土地坐落</t>
   </si>
@@ -225,6 +225,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -243,7 +246,10 @@
     <t>尖美</t>
   </si>
   <si>
-    <t>26，773</t>
+    <t>26773</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2013-12-31</t>
@@ -1237,13 +1243,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>62</v>
       </c>
@@ -1271,19 +1277,22 @@
       <c r="J1" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
@@ -1295,21 +1304,24 @@
         <v>267730</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="2">
+        <v>77</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="2">
         <v>960</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -1327,21 +1339,24 @@
         <v>3450</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="2">
+        <v>77</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="2">
         <v>960</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -1359,12 +1374,15 @@
         <v>6320</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="2">
+        <v>77</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="2">
         <v>960</v>
       </c>
     </row>
@@ -1386,19 +1404,19 @@
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1406,22 +1424,22 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1439,22 +1457,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1465,19 +1483,19 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2">
         <v>950000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1488,19 +1506,19 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1511,19 +1529,19 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊麗環_2013-12-31_財產申報表_tmp4fed1.xlsx
+++ b/legislator/property/output/normal/楊麗環_2013-12-31_財產申報表_tmp4fed1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="109">
   <si>
     <t>土地坐落</t>
   </si>
@@ -228,6 +228,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -237,6 +240,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>茂德科技股份有限公司</t>
   </si>
   <si>
@@ -252,7 +261,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>tmp4fed1</t>
   </si>
   <si>
     <t>債務人</t>
@@ -1243,13 +1258,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>62</v>
       </c>
@@ -1280,19 +1295,28 @@
       <c r="K1" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
@@ -1304,24 +1328,33 @@
         <v>267730</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="2">
+        <v>81</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2">
         <v>960</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -1339,24 +1372,33 @@
         <v>3450</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="2">
+        <v>81</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="2">
         <v>960</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -1374,16 +1416,25 @@
         <v>6320</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="2">
+        <v>81</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="2">
         <v>960</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N4" s="2">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1404,19 +1455,19 @@
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1424,22 +1475,22 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1457,22 +1508,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1483,19 +1534,19 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2">
         <v>950000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1506,19 +1557,19 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1529,19 +1580,19 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊麗環_2013-12-31_財產申報表_tmp4fed1.xlsx
+++ b/legislator/property/output/normal/楊麗環_2013-12-31_財產申報表_tmp4fed1.xlsx
@@ -19,9 +19,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="109">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="113">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>桃圜縣桃圜市和平段04110000地號</t>
+  </si>
+  <si>
+    <t>臺北市文山區政大段四小段06460000地號</t>
+  </si>
+  <si>
+    <t>100000分之1942</t>
+  </si>
+  <si>
+    <t>100000分之146</t>
+  </si>
+  <si>
+    <t>楊麗環</t>
+  </si>
+  <si>
+    <t>97年05月19日</t>
+  </si>
+  <si>
+    <t>102年06月06日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>1102154</t>
+  </si>
+  <si>
+    <t>10465000</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>tmp4fed1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,46 +126,13 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>桃圜縣桃圜市和平段0411 -0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市文山區政大段四小段 0646-0000 地號</t>
-  </si>
-  <si>
-    <t>100000 分 之 1942</t>
-  </si>
-  <si>
-    <t>100000 分 之146</t>
-  </si>
-  <si>
-    <t>楊麗環</t>
-  </si>
-  <si>
-    <t>97年05月 19日</t>
-  </si>
-  <si>
-    <t>102 年 06 月06日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>1,102,154</t>
-  </si>
-  <si>
-    <t>10，465,000</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>桃園縣桃圜市莊二段04489-000 建號</t>
-  </si>
-  <si>
-    <t>桃園縣桃圜市莊二段04460-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市文山區政大段四小段 02320-000 建號</t>
+    <t>桃園縣桃圜市莊二段04489000建號</t>
+  </si>
+  <si>
+    <t>桃園縣桃圜市莊二段04460000建號</t>
+  </si>
+  <si>
+    <t>臺北市文山區政大段四小段02320000建號</t>
   </si>
   <si>
     <t>全部</t>
@@ -90,13 +141,13 @@
     <t>71分之1</t>
   </si>
   <si>
-    <t>•f-B 埋 楊麗環</t>
-  </si>
-  <si>
-    <t>102 年 06 月06曰</t>
-  </si>
-  <si>
-    <t>4,485,000(與 第◦筆土地或 第◦筆建物合 購）</t>
+    <t>fB埋楊麗環</t>
+  </si>
+  <si>
+    <t>102年06月06曰</t>
+  </si>
+  <si>
+    <t>4485000(與第◦筆土地或第◦筆建物合購）</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -144,7 +195,7 @@
     <t>台北富邦商業銀行</t>
   </si>
   <si>
-    <t>大眾商業銀行國外部，國際 金融業務分行</t>
+    <t>大眾商業銀行國外部國際金融業務分行</t>
   </si>
   <si>
     <t>臺灣土地銀行總行</t>
@@ -180,37 +231,31 @@
     <t>楊鹿場</t>
   </si>
   <si>
-    <t>士曰 rf,rTTT.gq 楊麗場</t>
-  </si>
-  <si>
-    <t>4-H gMrm 不面鹿場</t>
+    <t>士曰rfrTTT.gq楊麗場</t>
+  </si>
+  <si>
+    <t>4HgMrm不面鹿場</t>
   </si>
   <si>
     <t>楊麗場</t>
   </si>
   <si>
-    <t>4-H SMira 楊麗場</t>
-  </si>
-  <si>
-    <t>132,415.91</t>
-  </si>
-  <si>
-    <t>1,059,114</t>
-  </si>
-  <si>
-    <t>1,541,122</t>
-  </si>
-  <si>
-    <t>1，249,183</t>
-  </si>
-  <si>
-    <t>377,385.34</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>4HSMira楊麗場</t>
+  </si>
+  <si>
+    <t>132415.91</t>
+  </si>
+  <si>
+    <t>1059114</t>
+  </si>
+  <si>
+    <t>1541122</t>
+  </si>
+  <si>
+    <t>1249183</t>
+  </si>
+  <si>
+    <t>377385.34</t>
   </si>
   <si>
     <t>quantity</t>
@@ -225,27 +270,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>茂德科技股份有限公司</t>
   </si>
   <si>
@@ -261,15 +285,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-12-31</t>
-  </si>
-  <si>
-    <t>tmp4fed1</t>
-  </si>
-  <si>
     <t>債務人</t>
   </si>
   <si>
@@ -288,13 +303,10 @@
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>台灣土地銀行新店分行 新北市新店區北新路一段 309號</t>
-  </si>
-  <si>
-    <t>5,000,000</t>
-  </si>
-  <si>
-    <t>102年06月 06日</t>
+    <t>台灣土地銀行新店分行新北市新店區北新路一段309號</t>
+  </si>
+  <si>
+    <t>5000000</t>
   </si>
   <si>
     <t>購置房屋</t>
@@ -330,16 +342,16 @@
     <t>桃圜縣桃德路305號</t>
   </si>
   <si>
-    <t>2,000,000</t>
-  </si>
-  <si>
-    <t>2,500,000</t>
-  </si>
-  <si>
-    <t>87年08月 01日</t>
-  </si>
-  <si>
-    <t>92年08月 01日</t>
+    <t>2000000</t>
+  </si>
+  <si>
+    <t>2500000</t>
+  </si>
+  <si>
+    <t>87年08月01日</t>
+  </si>
+  <si>
+    <t>92年08月01日</t>
   </si>
   <si>
     <t>100年02月</t>
@@ -704,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -732,57 +744,120 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1796</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>960</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>1563</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2">
+        <v>960</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="2">
         <v>14</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -800,25 +875,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -826,22 +901,22 @@
         <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2">
         <v>121.97</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="H2" s="2">
         <v>892100</v>
@@ -852,22 +927,22 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2">
         <v>9.28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2">
         <v>130639</v>
@@ -878,25 +953,25 @@
         <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2">
         <v>53.45</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -914,22 +989,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -937,20 +1012,20 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -958,20 +1033,20 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -979,20 +1054,20 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1000,16 +1075,16 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1021,16 +1096,16 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1042,16 +1117,16 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1063,16 +1138,16 @@
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1084,16 +1159,16 @@
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1105,16 +1180,16 @@
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1126,16 +1201,16 @@
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1147,16 +1222,16 @@
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1168,16 +1243,16 @@
         <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1189,22 +1264,22 @@
         <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1212,16 +1287,16 @@
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F15" s="2">
         <v>9.28</v>
@@ -1235,16 +1310,16 @@
         <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1266,43 +1341,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1310,40 +1385,40 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2">
         <v>267730</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L2" s="2">
         <v>960</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="N2" s="2">
         <v>69</v>
@@ -1354,10 +1429,10 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2">
         <v>345</v>
@@ -1366,28 +1441,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G3" s="2">
         <v>3450</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L3" s="2">
         <v>960</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="N3" s="2">
         <v>70</v>
@@ -1398,10 +1473,10 @@
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
         <v>632</v>
@@ -1410,28 +1485,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="G4" s="2">
         <v>6320</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L4" s="2">
         <v>960</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="N4" s="2">
         <v>71</v>
@@ -1452,22 +1527,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1475,22 +1550,22 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1508,22 +1583,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1531,22 +1606,22 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E2" s="2">
         <v>950000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1554,22 +1629,22 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1577,22 +1652,22 @@
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊麗環_2013-12-31_財產申報表_tmp4fed1.xlsx
+++ b/legislator/property/output/normal/楊麗環_2013-12-31_財產申報表_tmp4fed1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="87">
   <si>
     <t>name</t>
   </si>
@@ -63,81 +63,57 @@
     <t>index</t>
   </si>
   <si>
-    <t>桃圜縣桃圜市和平段04110000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺北市文山區政大段四小段06460000地號</t>
   </si>
   <si>
-    <t>100000分之1942</t>
-  </si>
-  <si>
     <t>100000分之146</t>
   </si>
   <si>
     <t>楊麗環</t>
   </si>
   <si>
+    <t>102年06月06日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>10465000</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>tmp4fed1</t>
+  </si>
+  <si>
+    <t>桃園縣桃圜市莊二段04489000建號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>97年05月19日</t>
   </si>
   <si>
-    <t>102年06月06日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>1102154</t>
-  </si>
-  <si>
-    <t>10465000</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-12-31</t>
-  </si>
-  <si>
-    <t>tmp4fed1</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>桃園縣桃圜市莊二段04489000建號</t>
-  </si>
-  <si>
     <t>桃園縣桃圜市莊二段04460000建號</t>
   </si>
   <si>
     <t>臺北市文山區政大段四小段02320000建號</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>71分之1</t>
   </si>
   <si>
@@ -150,27 +126,21 @@
     <t>4485000(與第◦筆土地或第◦筆建物合購）</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>合作金庫商業銀行</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>楊鹿場</t>
+  </si>
+  <si>
+    <t>1059114</t>
+  </si>
+  <si>
     <t>臺灣銀行</t>
   </si>
   <si>
@@ -201,9 +171,6 @@
     <t>臺灣土地銀行總行</t>
   </si>
   <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>綜合存款</t>
   </si>
   <si>
@@ -219,18 +186,12 @@
     <t>活期儲蓄存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>新臺幣.</t>
   </si>
   <si>
     <t>南非幣</t>
   </si>
   <si>
-    <t>楊鹿場</t>
-  </si>
-  <si>
     <t>士曰rfrTTT.gq楊麗場</t>
   </si>
   <si>
@@ -246,9 +207,6 @@
     <t>132415.91</t>
   </si>
   <si>
-    <t>1059114</t>
-  </si>
-  <si>
     <t>1541122</t>
   </si>
   <si>
@@ -267,39 +225,15 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>茂德科技股份有限公司</t>
-  </si>
-  <si>
     <t>二米</t>
   </si>
   <si>
     <t>尖美</t>
   </si>
   <si>
-    <t>26773</t>
-  </si>
-  <si>
     <t>stock</t>
   </si>
   <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>房屋貸款</t>
   </si>
   <si>
@@ -312,30 +246,24 @@
     <t>購置房屋</t>
   </si>
   <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
-  </si>
-  <si>
     <t>瑞恩帝兒幼稚圜</t>
   </si>
   <si>
+    <t>桃圜縣同安街505號</t>
+  </si>
+  <si>
+    <t>87年08月01日</t>
+  </si>
+  <si>
+    <t>投資</t>
+  </si>
+  <si>
     <t>瑞恩帝兒環中幼稚圜</t>
   </si>
   <si>
     <t>瑞恩帝兒桃德幼稚圜</t>
   </si>
   <si>
-    <t>桃圜縣同安街505號</t>
-  </si>
-  <si>
     <t>桃圜縣新生北路558號</t>
   </si>
   <si>
@@ -348,16 +276,10 @@
     <t>2500000</t>
   </si>
   <si>
-    <t>87年08月01日</t>
-  </si>
-  <si>
     <t>92年08月01日</t>
   </si>
   <si>
     <t>100年02月</t>
-  </si>
-  <si>
-    <t>投資</t>
   </si>
 </sst>
 </file>
@@ -716,13 +638,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -765,19 +687,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1796</v>
+        <v>1563</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -786,19 +714,19 @@
         <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>18</v>
@@ -807,57 +735,16 @@
         <v>960</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1563</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="2">
-        <v>960</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="2">
-        <v>14</v>
+      <c r="P2" s="2">
+        <v>0.00146</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>2.28198</v>
       </c>
     </row>
   </sheetData>
@@ -867,7 +754,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -875,103 +762,77 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1">
+        <v>121.97</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="H1" s="1">
+        <v>892100</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2">
-        <v>121.97</v>
+        <v>9.28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2">
-        <v>892100</v>
+        <v>130639</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2">
+        <v>53.45</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="2">
-        <v>9.28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2">
-        <v>130639</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>21</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="2">
-        <v>53.45</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>42</v>
+      <c r="H3" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -981,7 +842,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -989,340 +850,317 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>77</v>
+      <c r="G4" s="2">
+        <v>5380</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>5380</v>
+        <v>523705</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>523705</v>
+        <v>225335</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>225335</v>
+        <v>64332</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>64332</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>200000</v>
+        <v>766791</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>766791</v>
+        <v>66417</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>66417</v>
+        <v>724008</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>724008</v>
+        <v>571279</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>571279</v>
+      <c r="F13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
+      </c>
+      <c r="F14" s="2">
+        <v>9.28</v>
+      </c>
+      <c r="G14" s="2">
+        <v>26.44</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="2">
-        <v>9.28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>26.44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>61</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
         <v>770370</v>
       </c>
     </row>
@@ -1333,7 +1171,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1347,16 +1185,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1382,34 +1220,34 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>86</v>
+      <c r="D2" s="2">
+        <v>345</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2">
-        <v>267730</v>
+        <v>3450</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>18</v>
@@ -1418,42 +1256,42 @@
         <v>960</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N2" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2">
-        <v>345</v>
+        <v>632</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2">
-        <v>3450</v>
+        <v>6320</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>18</v>
@@ -1462,53 +1300,9 @@
         <v>960</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N3" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>71</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2">
-        <v>632</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="2">
-        <v>6320</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="2">
-        <v>960</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="2">
         <v>71</v>
       </c>
     </row>
@@ -1519,7 +1313,40 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1527,147 +1354,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
+      </c>
+      <c r="E1" s="1">
+        <v>950000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>109</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="2">
-        <v>950000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>112</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊麗環_2013-12-31_財產申報表_tmp4fed1.xlsx
+++ b/legislator/property/output/normal/楊麗環_2013-12-31_財產申報表_tmp4fed1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
   <si>
     <t>name</t>
   </si>
@@ -69,21 +69,33 @@
     <t>total</t>
   </si>
   <si>
+    <t>桃圜縣桃圜市和平段04110000地號</t>
+  </si>
+  <si>
     <t>臺北市文山區政大段四小段06460000地號</t>
   </si>
   <si>
+    <t>100000分之1942</t>
+  </si>
+  <si>
     <t>100000分之146</t>
   </si>
   <si>
     <t>楊麗環</t>
   </si>
   <si>
+    <t>97年05月19日</t>
+  </si>
+  <si>
     <t>102年06月06日</t>
   </si>
   <si>
     <t>買賣</t>
   </si>
   <si>
+    <t>1102154</t>
+  </si>
+  <si>
     <t>10465000</t>
   </si>
   <si>
@@ -102,18 +114,15 @@
     <t>桃園縣桃圜市莊二段04489000建號</t>
   </si>
   <si>
+    <t>桃園縣桃圜市莊二段04460000建號</t>
+  </si>
+  <si>
+    <t>臺北市文山區政大段四小段02320000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>97年05月19日</t>
-  </si>
-  <si>
-    <t>桃園縣桃圜市莊二段04460000建號</t>
-  </si>
-  <si>
-    <t>臺北市文山區政大段四小段02320000建號</t>
-  </si>
-  <si>
     <t>71分之1</t>
   </si>
   <si>
@@ -225,10 +234,16 @@
     <t>currency</t>
   </si>
   <si>
+    <t>茂德科技股份有限公司</t>
+  </si>
+  <si>
     <t>二米</t>
   </si>
   <si>
     <t>尖美</t>
+  </si>
+  <si>
+    <t>26773</t>
   </si>
   <si>
     <t>stock</t>
@@ -638,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -696,54 +711,107 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1563</v>
+        <v>1796</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M2" s="2">
         <v>960</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.01942</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>34.87832</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1563</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2">
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>960</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="2">
         <v>14</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P3" s="2">
         <v>0.00146</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q3" s="2">
         <v>2.28198</v>
       </c>
     </row>
@@ -754,85 +822,219 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2">
+        <v>121.97</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2">
+        <v>892100</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1">
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2">
+        <v>960</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2">
+        <v>19</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>121.97</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2">
+        <v>9.28</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2">
+        <v>130639</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1">
-        <v>892100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>960</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="2">
-        <v>9.28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="O3" s="2">
+        <v>20</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0140845070422535</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.130704225352113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="C4" s="2">
+        <v>53.45</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2">
-        <v>130639</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2">
+        <v>960</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="2">
         <v>21</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
         <v>53.45</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -842,7 +1044,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -850,317 +1052,338 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>5380</v>
+      <c r="G4" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>523705</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>225335</v>
+        <v>523705</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>64332</v>
+        <v>225335</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>200000</v>
+        <v>64332</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
+        <v>54</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>766791</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>66417</v>
+        <v>766791</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>724008</v>
+        <v>66417</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>571279</v>
+        <v>724008</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>64</v>
+        <v>20</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
+        <v>571279</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="2">
-        <v>9.28</v>
-      </c>
-      <c r="G14" s="2">
-        <v>26.44</v>
+        <v>20</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
+        <v>60</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="2">
+        <v>9.28</v>
+      </c>
+      <c r="G15" s="2">
+        <v>26.44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
         <v>61</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
         <v>770370</v>
       </c>
     </row>
@@ -1171,7 +1394,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1185,13 +1408,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1220,89 +1443,133 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2">
-        <v>345</v>
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2">
-        <v>3450</v>
+        <v>267730</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L2" s="2">
         <v>960</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N2" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2">
-        <v>632</v>
+        <v>345</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2">
-        <v>6320</v>
+        <v>3450</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L3" s="2">
         <v>960</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N3" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>71</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2">
+        <v>632</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="2">
+        <v>6320</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2">
+        <v>960</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="2">
         <v>71</v>
       </c>
     </row>
@@ -1313,30 +1580,53 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>104</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1346,7 +1636,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1354,68 +1644,91 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1">
         <v>950000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="2">
+        <v>950000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>110</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>112</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>78</v>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊麗環_2013-12-31_財產申報表_tmp4fed1.xlsx
+++ b/legislator/property/output/normal/楊麗環_2013-12-31_財產申報表_tmp4fed1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="93">
   <si>
     <t>name</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>4485000(與第◦筆土地或第◦筆建物合購）</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>合作金庫商業銀行</t>
@@ -904,7 +907,7 @@
         <v>892100</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>27</v>
@@ -957,7 +960,7 @@
         <v>130639</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>27</v>
@@ -1010,7 +1013,7 @@
         <v>37</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>27</v>
@@ -1052,20 +1055,20 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1073,20 +1076,20 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1094,20 +1097,20 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1115,20 +1118,20 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1136,13 +1139,13 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -1157,16 +1160,16 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1178,13 +1181,13 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -1199,13 +1202,13 @@
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -1220,13 +1223,13 @@
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -1241,13 +1244,13 @@
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -1262,13 +1265,13 @@
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -1283,16 +1286,16 @@
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1304,13 +1307,13 @@
         <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -1325,22 +1328,22 @@
         <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1348,16 +1351,16 @@
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F15" s="2">
         <v>9.28</v>
@@ -1371,13 +1374,13 @@
         <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
@@ -1408,13 +1411,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1446,25 +1449,25 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2">
         <v>267730</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -1490,7 +1493,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1502,13 +1505,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2">
         <v>3450</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>27</v>
@@ -1534,7 +1537,7 @@
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1546,13 +1549,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2">
         <v>6320</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>27</v>
@@ -1588,22 +1591,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1611,22 +1614,22 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1647,19 +1650,19 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1">
         <v>950000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1670,19 +1673,19 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2">
         <v>950000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1693,19 +1696,19 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1716,19 +1719,19 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊麗環_2013-12-31_財產申報表_tmp4fed1.xlsx
+++ b/legislator/property/output/normal/楊麗環_2013-12-31_財產申報表_tmp4fed1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="91">
   <si>
     <t>name</t>
   </si>
@@ -138,72 +138,78 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>合作金庫商業銀行</t>
   </si>
   <si>
+    <t>臺灣銀行</t>
+  </si>
+  <si>
+    <t>華南商業銀行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>中國國際商業銀行</t>
+  </si>
+  <si>
+    <t>大眾商業銀行</t>
+  </si>
+  <si>
+    <t>渣打國際商業銀行</t>
+  </si>
+  <si>
+    <t>遠東國際商業銀行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行</t>
+  </si>
+  <si>
+    <t>大眾商業銀行國外部國際金融業務分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行總行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>中華郵政存簿儲金</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>定期儲蓄存款</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
+    <t>新臺幣.</t>
+  </si>
+  <si>
+    <t>南非幣</t>
+  </si>
+  <si>
     <t>楊鹿場</t>
   </si>
   <si>
-    <t>1059114</t>
-  </si>
-  <si>
-    <t>臺灣銀行</t>
-  </si>
-  <si>
-    <t>華南商業銀行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>中國國際商業銀行</t>
-  </si>
-  <si>
-    <t>大眾商業銀行</t>
-  </si>
-  <si>
-    <t>渣打國際商業銀行</t>
-  </si>
-  <si>
-    <t>遠東國際商業銀行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行</t>
-  </si>
-  <si>
-    <t>大眾商業銀行國外部國際金融業務分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行總行</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>中華郵政存簿儲金</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>定期儲蓄存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>新臺幣.</t>
-  </si>
-  <si>
-    <t>南非幣</t>
-  </si>
-  <si>
     <t>士曰rfrTTT.gq楊麗場</t>
   </si>
   <si>
@@ -216,25 +222,13 @@
     <t>4HSMira楊麗場</t>
   </si>
   <si>
-    <t>132415.91</t>
-  </si>
-  <si>
-    <t>1541122</t>
-  </si>
-  <si>
-    <t>1249183</t>
-  </si>
-  <si>
-    <t>377385.34</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>茂德科技股份有限公司</t>
@@ -1047,13 +1041,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1064,330 +1058,646 @@
         <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1059114</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>67</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2">
+        <v>960</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>1541122</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>67</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2">
+        <v>960</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1249183</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2">
+        <v>960</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>5380</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2">
+        <v>960</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+        <v>64</v>
+      </c>
+      <c r="F6" s="2">
         <v>523705</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2">
+        <v>960</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>225335</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2">
+        <v>960</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>64332</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2">
+        <v>960</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="2">
+        <v>960</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>766791</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="2">
+        <v>960</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>66417</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="2">
+        <v>960</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+        <v>65</v>
+      </c>
+      <c r="F12" s="2">
         <v>724008</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="2">
+        <v>960</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>571279</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="2">
+        <v>960</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>65</v>
+      <c r="F14" s="2">
+        <v>377385.34</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>67</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="2">
+        <v>960</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="2">
+        <v>26.44</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="2">
+        <v>960</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="2">
         <v>60</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="2">
-        <v>9.28</v>
-      </c>
-      <c r="G15" s="2">
-        <v>26.44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>770370</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="2">
+        <v>960</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="2">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1411,13 +1721,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1449,25 +1759,25 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2">
         <v>267730</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -1493,7 +1803,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1505,13 +1815,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="G3" s="2">
         <v>3450</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>27</v>
@@ -1537,7 +1847,7 @@
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1549,13 +1859,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="G4" s="2">
         <v>6320</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>27</v>
@@ -1591,22 +1901,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1614,22 +1924,22 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1650,19 +1960,19 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1">
         <v>950000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1673,19 +1983,19 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2">
         <v>950000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1696,19 +2006,19 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1719,19 +2029,19 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊麗環_2013-12-31_財產申報表_tmp4fed1.xlsx
+++ b/legislator/property/output/normal/楊麗環_2013-12-31_財產申報表_tmp4fed1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="94">
   <si>
     <t>name</t>
   </si>
@@ -246,52 +246,61 @@
     <t>stock</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>房屋貸款</t>
   </si>
   <si>
     <t>台灣土地銀行新店分行新北市新店區北新路一段309號</t>
   </si>
   <si>
-    <t>5000000</t>
-  </si>
-  <si>
     <t>購置房屋</t>
   </si>
   <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>瑞恩帝兒幼稚圜</t>
   </si>
   <si>
+    <t>瑞恩帝兒環中幼稚圜</t>
+  </si>
+  <si>
+    <t>瑞恩帝兒桃德幼稚圜</t>
+  </si>
+  <si>
     <t>桃圜縣同安街505號</t>
   </si>
   <si>
+    <t>桃圜縣新生北路558號</t>
+  </si>
+  <si>
+    <t>桃圜縣桃德路305號</t>
+  </si>
+  <si>
     <t>87年08月01日</t>
   </si>
   <si>
+    <t>92年08月01日</t>
+  </si>
+  <si>
+    <t>100年02月</t>
+  </si>
+  <si>
     <t>投資</t>
   </si>
   <si>
-    <t>瑞恩帝兒環中幼稚圜</t>
-  </si>
-  <si>
-    <t>瑞恩帝兒桃德幼稚圜</t>
-  </si>
-  <si>
-    <t>桃圜縣新生北路558號</t>
-  </si>
-  <si>
-    <t>桃圜縣桃德路305號</t>
-  </si>
-  <si>
-    <t>2000000</t>
-  </si>
-  <si>
-    <t>2500000</t>
-  </si>
-  <si>
-    <t>92年08月01日</t>
-  </si>
-  <si>
-    <t>100年02月</t>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -1893,53 +1902,95 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5000000</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <v>960</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1949,33 +2000,54 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="1">
-        <v>950000</v>
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>109</v>
       </c>
@@ -1983,22 +2055,43 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2">
         <v>950000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>92</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <v>960</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>110</v>
       </c>
@@ -2006,22 +2099,43 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="E3" s="2">
+        <v>2000000</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>92</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2">
+        <v>960</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>112</v>
       </c>
@@ -2029,19 +2143,40 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="E4" s="2">
+        <v>2500000</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2">
+        <v>960</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="2">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊麗環_2013-12-31_財產申報表_tmp4fed1.xlsx
+++ b/legislator/property/output/normal/楊麗環_2013-12-31_財產申報表_tmp4fed1.xlsx
@@ -9,17 +9,18 @@
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
-    <sheet name="存款" sheetId="3" r:id="rId3"/>
-    <sheet name="股票" sheetId="4" r:id="rId4"/>
-    <sheet name="債務" sheetId="5" r:id="rId5"/>
-    <sheet name="事業投資" sheetId="6" r:id="rId6"/>
+    <sheet name="汽車" sheetId="3" r:id="rId3"/>
+    <sheet name="存款" sheetId="4" r:id="rId4"/>
+    <sheet name="股票" sheetId="5" r:id="rId5"/>
+    <sheet name="債務" sheetId="6" r:id="rId6"/>
+    <sheet name="事業投資" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="99">
   <si>
     <t>name</t>
   </si>
@@ -136,6 +137,21 @@
   </si>
   <si>
     <t>building</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>國瑞</t>
+  </si>
+  <si>
+    <t>97年05月26日</t>
+  </si>
+  <si>
+    <t>1150000</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>bank</t>
@@ -1050,6 +1066,104 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3456</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <v>960</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1058,13 +1172,13 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1099,22 +1213,22 @@
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F2" s="2">
         <v>1059114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>27</v>
@@ -1140,13 +1254,13 @@
         <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -1155,7 +1269,7 @@
         <v>1541122</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>27</v>
@@ -1181,22 +1295,22 @@
         <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F4" s="2">
         <v>1249183</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>27</v>
@@ -1222,13 +1336,13 @@
         <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -1237,7 +1351,7 @@
         <v>5380</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>27</v>
@@ -1263,22 +1377,22 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F6" s="2">
         <v>523705</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>27</v>
@@ -1304,13 +1418,13 @@
         <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -1319,7 +1433,7 @@
         <v>225335</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>27</v>
@@ -1345,13 +1459,13 @@
         <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -1360,7 +1474,7 @@
         <v>64332</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>27</v>
@@ -1386,13 +1500,13 @@
         <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -1401,7 +1515,7 @@
         <v>200000</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>27</v>
@@ -1427,13 +1541,13 @@
         <v>55</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -1442,7 +1556,7 @@
         <v>766791</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>27</v>
@@ -1468,13 +1582,13 @@
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -1483,7 +1597,7 @@
         <v>66417</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>27</v>
@@ -1509,22 +1623,22 @@
         <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F12" s="2">
         <v>724008</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>27</v>
@@ -1550,13 +1664,13 @@
         <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -1565,7 +1679,7 @@
         <v>571279</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>27</v>
@@ -1591,13 +1705,13 @@
         <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>20</v>
@@ -1606,7 +1720,7 @@
         <v>377385.34</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>27</v>
@@ -1632,22 +1746,22 @@
         <v>60</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F15" s="2">
         <v>26.44</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>27</v>
@@ -1673,13 +1787,13 @@
         <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
@@ -1688,7 +1802,7 @@
         <v>770370</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>27</v>
@@ -1714,7 +1828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N4"/>
   <sheetViews>
@@ -1730,13 +1844,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1768,25 +1882,25 @@
         <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2">
         <v>267730</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -1812,7 +1926,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1824,13 +1938,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G3" s="2">
         <v>3450</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>27</v>
@@ -1856,7 +1970,7 @@
         <v>71</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1868,13 +1982,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G4" s="2">
         <v>6320</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>27</v>
@@ -1900,7 +2014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -1910,10 +2024,10 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1954,13 +2068,13 @@
         <v>104</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2">
         <v>5000000</v>
@@ -1969,10 +2083,10 @@
         <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -1998,7 +2112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N4"/>
   <sheetViews>
@@ -2011,10 +2125,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
@@ -2055,22 +2169,22 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2">
         <v>950000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>27</v>
@@ -2099,22 +2213,22 @@
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2">
         <v>2000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>27</v>
@@ -2143,22 +2257,22 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2">
         <v>2500000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>27</v>
